--- a/biology/Botanique/Disocactus_ackermannii/Disocactus_ackermannii.xlsx
+++ b/biology/Botanique/Disocactus_ackermannii/Disocactus_ackermannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disocactus ackermannii est une espèce de plantes à fleurs de la famille des Cactaceae. C'est un cactus épiphyte originaire du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses tiges sont aplaties en forme de feuilles avec de grosses fleurs diurnes rouges.
 </t>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aztèques connaissaient ce cactus sous le nom de Nopalxochitl[1]. Il a été nommé d'après Georg Ackermann qui introduisit cette plante en Europe en 1824 et a été étudié par Adrian Hardy Haworth à Londres en 1829.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aztèques connaissaient ce cactus sous le nom de Nopalxochitl. Il a été nommé d'après Georg Ackermann qui introduisit cette plante en Europe en 1824 et a été étudié par Adrian Hardy Haworth à Londres en 1829.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est originaire des hautes régions de l'État d'Oaxaca, des Chiapas et de Veracruz à une altitude située entre 1 800 et 2 400 mètres.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Epiphyllum ackermannii Haw.
 Cactus ackermannii (Haw.) Lindl.
@@ -638,7 +658,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Disocactus ackermannii (Lindl.) Barthlott a été invalidé au profit d'une meilleure description faite par Ralf Bauer.</t>
         </is>
